--- a/medicine/Enfance/Pascale_Bougeault/Pascale_Bougeault.xlsx
+++ b/medicine/Enfance/Pascale_Bougeault/Pascale_Bougeault.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pascale Bougeault, née en 1958 à Bourges, est une auteure-illustratrice de littérature pour la jeunesse.
 </t>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Influencée par son oncle architecte Bernard Bougeault, Pascale Bougeault s’inscrit au lycée technique Adolphe-Chérioux à Vitry-sur-Seine pour obtenir un brevet de technicien « collaborateur d’architecte » en 1978. Elle poursuit ses études à la Sorbonne Paris 1 en Histoire de l’art et se sent plus attirée par les arts précolombiens et les arts asiatiques[évasif]. Elle obtient une licence d’histoire de l'art et d’archéologie en 1981 à l’Institut Michelet. C’est à partir de la passion communicative de Paul Gendrop (es) qu’elle part pour son premier voyage au Mexique, Guatemala et Belize découvrir les restes des civilisations mésoaméricaines. Parallèlement, elle se forme au métier de bibliothécaire qu’elle pratiquera quelques années[1] avec pour spécialité la bande dessinée adulte. Elle y fera trois rencontres déterminantes : Jacques Ferrandez, Edmond Baudoin et Jean Teulé.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Influencée par son oncle architecte Bernard Bougeault, Pascale Bougeault s’inscrit au lycée technique Adolphe-Chérioux à Vitry-sur-Seine pour obtenir un brevet de technicien « collaborateur d’architecte » en 1978. Elle poursuit ses études à la Sorbonne Paris 1 en Histoire de l’art et se sent plus attirée par les arts précolombiens et les arts asiatiques[évasif]. Elle obtient une licence d’histoire de l'art et d’archéologie en 1981 à l’Institut Michelet. C’est à partir de la passion communicative de Paul Gendrop (es) qu’elle part pour son premier voyage au Mexique, Guatemala et Belize découvrir les restes des civilisations mésoaméricaines. Parallèlement, elle se forme au métier de bibliothécaire qu’elle pratiquera quelques années avec pour spécialité la bande dessinée adulte. Elle y fera trois rencontres déterminantes : Jacques Ferrandez, Edmond Baudoin et Jean Teulé.
 Elle reprend des études de dessin à l’école Duperré en centre artisanal, arts narratifs figurés avec Yves Got, et de dessin Beaux Arts de la ville de Paris. Elle y rencontre Anne Baraou et Corinne Chalmeau. Elles fondent les éditions Hors Gabarit, micro-maison d'édition qui fonctionne de 1990 à 1995.
 Son goût pour les voyages remplit ses carnets de croquis de voyage, en Afrique, Asie, Amérique Latine, Antilles, base de son inspiration.
-Depuis elle a publié une quarantaine d’albums pour la jeunesse, principalement à l’École des Loisirs[2], illustré plusieurs livres et collaboré aux revues PLGPPUR, Le Lézard, Gault et Millau, Le Monde de l’éducation, Le Monde supplément région, et donne depuis 2014 une chronique trimestrielle dans Jardinot [3] consacrée aux petits trucs du jardin écolo.
-Elle est membre de la Charte des Auteurs Jeunesse[4].
+Depuis elle a publié une quarantaine d’albums pour la jeunesse, principalement à l’École des Loisirs, illustré plusieurs livres et collaboré aux revues PLGPPUR, Le Lézard, Gault et Millau, Le Monde de l’éducation, Le Monde supplément région, et donne depuis 2014 une chronique trimestrielle dans Jardinot  consacrée aux petits trucs du jardin écolo.
+Elle est membre de la Charte des Auteurs Jeunesse.
 </t>
         </is>
       </c>
@@ -546,17 +560,19 @@
           <t>Édition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1991
-La Siesta - Hors-gabarit. Texte Anne Baraou [5]   (ISBN 2-908595-00-1)
-Raoul le poulpe - Éditions Circonflexe coll. Livre-scratch[6]  (ISBN 978-2878330441)
+La Siesta - Hors-gabarit. Texte Anne Baraou    (ISBN 2-908595-00-1)
+Raoul le poulpe - Éditions Circonflexe coll. Livre-scratch  (ISBN 978-2878330441)
 Printemps et autres saisons – J. M. G. Le Clézio, dessin de couverture, Folio Gallimard,  (ISBN 2-07-038377-6)
 1992
-Compte à rebours à Kourou - Albin Michel Jeunesse/Cité des sciences et de l’industrie - coll. Carnets du monde [7] Texte d’Isabèl Santos  (ISBN 978-2226054883)
+Compte à rebours à Kourou - Albin Michel Jeunesse/Cité des sciences et de l’industrie - coll. Carnets du monde  Texte d’Isabèl Santos  (ISBN 978-2226054883)
 1993
-Dora demande des détails - L’école des loisirs - Coll. Mouche[8].Texte de Nancy et Léa Huston  (ISBN 9782211044318)
-Mimi perd sa place - L’école des loisirs [9]
+Dora demande des détails - L’école des loisirs - Coll. Mouche.Texte de Nancy et Léa Huston  (ISBN 9782211044318)
+Mimi perd sa place - L’école des loisirs 
 1994
 Au clair de la lune. Mes croquis de maternité - Éditions du Seuil
 Mimi et Angelo - L’école des loisirs
@@ -615,15 +631,15 @@
 Mes petites teintures - Eyrolles, collection Les petits bricolos  (ISBN 9782212138580)
 2018
 De quelle couleur es-tu ? – Caribulles -  (ISBN 979-10-94109-02-1)
-Comment maman a tué le chef des pamplemousses - Rue de L’échiquier jeunesse [10] -  (ISBN 978-2-37425-133-2)
-Bornéo/Bali, carnet de voyage, librement accessible sur Calimeo [11]
+Comment maman a tué le chef des pamplemousses - Rue de L’échiquier jeunesse  -  (ISBN 978-2-37425-133-2)
+Bornéo/Bali, carnet de voyage, librement accessible sur Calimeo 
 2019
-Beau fraisier, Une enfance à Alger - édition bilingue franco-allemande – Bübül Verlag - Berlin [12] -  (ISBN 978-3-946807-42-1)
+Beau fraisier, Une enfance à Alger - édition bilingue franco-allemande – Bübül Verlag - Berlin  -  (ISBN 978-3-946807-42-1)
 2020
-Yoga Baba – L’école des loisirs – coll. Lutin poche [13]-  (ISBN 9782211087957)
-La famille Puzzle, petites chroniques de la famille recomposée - Rue de L’échiquier jeunesse [14]  (ISBN 978-2-37425-199-8)  Finaliste du prix UNICEF 2023 littérature jeunesse 2023[15] catégorie 9-12 ans.
+Yoga Baba – L’école des loisirs – coll. Lutin poche -  (ISBN 9782211087957)
+La famille Puzzle, petites chroniques de la famille recomposée - Rue de L’échiquier jeunesse   (ISBN 978-2-37425-199-8)  Finaliste du prix UNICEF 2023 littérature jeunesse 2023 catégorie 9-12 ans.
 2021
-Un ange est passé – Christine Sagnier, dessin de couverture, édition Zinedi [16] –  (ISBN 978-2-84859-222-0)</t>
+Un ange est passé – Christine Sagnier, dessin de couverture, édition Zinedi  –  (ISBN 978-2-84859-222-0)</t>
         </is>
       </c>
     </row>
@@ -651,7 +667,9 @@
           <t>Expositions individuelles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>2002 : Salon de coiffure Alain Delcourt, l’Art à la page, Paris « Rien du tout »
 2007 : Hôtel de ville, Cachan « Les reines du gymnase »
@@ -700,7 +718,9 @@
           <t>Expositions collectives</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>1999 : « Impressions d’Afrique ». Bibliothèque Départementale de l’Oise.
 2000/2001 : « Italiennes ». Amiens, Beauvais, Senlis, Compiègne.
@@ -741,10 +761,13 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">2014
-Peintures réalisées sur les murs du service pédiatrie de l'hôpital Necker, Paris, dans le cadre de l'opération Les illustrateurs de l'École des Loisirs à l'hôpital Necker [17]
-2016
-Spectacle : « Le petit garçon qui rêvait d'espace » d’après Jean Giono, dessins en direct sur iPad projetés sur les décors de cette pièce, avec la marionnettiste Marie Vitez et la Compagnie Parallel Theatre - Paris  </t>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Peintures réalisées sur les murs du service pédiatrie de l'hôpital Necker, Paris, dans le cadre de l'opération Les illustrateurs de l'École des Loisirs à l'hôpital Necker </t>
         </is>
       </c>
     </row>
@@ -769,10 +792,48 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Spectacle : « Le petit garçon qui rêvait d'espace » d’après Jean Giono, dessins en direct sur iPad projetés sur les décors de cette pièce, avec la marionnettiste Marie Vitez et la Compagnie Parallel Theatre - Paris  </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Pascale_Bougeault</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pascale_Bougeault</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Prix</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>2001 : « Peppino », Livrentête 2001, Culture et bibliothèque pour tous
 2000 : « Pourquoi si fâchée ? »; Prix Ricochet documentaire 2000 ». CILJ
